--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43195,6 +43195,43 @@
         </is>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43232,6 +43232,43 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,43 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,41 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43341,6 +43341,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43376,6 +43376,43 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,41 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43448,6 +43448,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,78 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,76 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,41 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,43 @@
         <v>11200</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,78 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43880,6 +43880,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70342,6 +70342,41 @@
         </is>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>7700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1959"/>
+  <dimension ref="A1:I1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70377,6 +70377,41 @@
         <v>7700</v>
       </c>
     </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1960"/>
+  <dimension ref="A1:I1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70412,6 +70412,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1961"/>
+  <dimension ref="A1:I1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70447,6 +70447,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1962"/>
+  <dimension ref="A1:I1963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70482,6 +70482,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1963" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1963"/>
+  <dimension ref="A1:I1964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70519,6 +70519,43 @@
         </is>
       </c>
     </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1964" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1964"/>
+  <dimension ref="A1:I1965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70556,6 +70556,41 @@
         </is>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1965"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70591,6 +70591,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1966" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70628,6 +70628,43 @@
         </is>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1967" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70665,6 +70665,43 @@
         </is>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1968" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1968"/>
+  <dimension ref="A1:I1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70702,6 +70702,43 @@
         </is>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1969" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70739,6 +70739,41 @@
         </is>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70774,6 +70774,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1971" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3611.xlsx
+++ b/data/3611.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70811,6 +70811,43 @@
         </is>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>PGLOBE</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1972" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
